--- a/dokumenty/harmonogram.xlsx
+++ b/dokumenty/harmonogram.xlsx
@@ -212,9 +212,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -230,19 +227,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -263,7 +255,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18640833747132959"/>
+          <c:x val="0.18640833747132968"/>
           <c:y val="0.13865139921926486"/>
           <c:w val="0.76811131980062131"/>
           <c:h val="0.81202495670666353"/>
@@ -871,14 +863,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="125380096"/>
-        <c:axId val="125381632"/>
+        <c:axId val="153934848"/>
+        <c:axId val="153830144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125380096"/>
+        <c:axId val="153934848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -899,14 +890,14 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125381632"/>
+        <c:crossAx val="153830144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125381632"/>
+        <c:axId val="153830144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +931,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125380096"/>
+        <c:crossAx val="153934848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,7 +952,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -971,15 +962,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104778</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1291,7 +1282,7 @@
   <dimension ref="B2:DV28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="BP31" sqref="BP31:BQ38"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,429 +1327,429 @@
       <c r="DN3" s="3"/>
       <c r="DO3" s="3"/>
       <c r="DP3" s="3"/>
-      <c r="DQ3" s="10"/>
-      <c r="DR3" s="10"/>
-      <c r="DS3" s="10"/>
-      <c r="DT3" s="10"/>
-      <c r="DU3" s="10"/>
-      <c r="DV3" s="10"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="15"/>
+      <c r="DT3" s="15"/>
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
     </row>
     <row r="4" spans="2:126" ht="4.5" customHeight="1"/>
     <row r="5" spans="2:126" ht="4.5" customHeight="1"/>
     <row r="6" spans="2:126" ht="4.5" customHeight="1"/>
     <row r="7" spans="2:126" ht="18" customHeight="1">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>42793</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>42814</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>E7-D7</f>
         <v>21</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:126" ht="18" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>42794</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>42795</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" ref="F8:F15" si="0">E8-D8</f>
         <v>1</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:126" ht="18" customHeight="1">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>1.2</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>42795</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>42814</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:126" ht="18" customHeight="1">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1.3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>42810</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>42811</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:126" ht="18" customHeight="1">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>42809</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>42820</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:126" ht="18" customHeight="1">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>2.1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>42809</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>42820</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:126" ht="18" customHeight="1">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>2.2000000000000002</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>42811</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>42818</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:126">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>42815</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>42822</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:126">
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>42815</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>42843</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:126">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>3.1</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>42822</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>42829</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" ref="F16:F28" si="1">E16-D16</f>
         <v>7</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>3.2</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>42822</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>42829</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>3.3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>42829</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>42835</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>3.4</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>42835</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>42843</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>42843</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>42856</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>42843</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>42850</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>4.2</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>42850</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>42856</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>5</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>42856</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>42864</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>5.0999999999999996</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>42856</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>42864</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>5.2</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>42856</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>42864</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>6</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>42864</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>42869</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>6.1</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>42864</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>42867</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>6.2</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>42865</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>42869</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
